--- a/biology/Botanique/Glera_(cépage)/Glera_(cépage).xlsx
+++ b/biology/Botanique/Glera_(cépage)/Glera_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glera_(c%C3%A9page)</t>
+          <t>Glera_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glera est un cépage blanc italien de raisin de cuve. Il compose de 85 % à 100 % du vin prosecco.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glera_(c%C3%A9page)</t>
+          <t>Glera_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originellement appelé prosecco, il est renommé glera par le gouvernement italien en 2009 pour éviter la confusion avec le vin prosecco issu du cépage éponyme, et ainsi protéger l’appellation[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originellement appelé prosecco, il est renommé glera par le gouvernement italien en 2009 pour éviter la confusion avec le vin prosecco issu du cépage éponyme, et ainsi protéger l’appellation.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glera_(c%C3%A9page)</t>
+          <t>Glera_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin prosecco est issu de la transformation du cépage glera. Il est classé cépage d'appoint en DOC Colli di Conegliano, Colli Euganei, Prosecco di Conegliano Valdobbiadene et Montello e Colli Asolani.
 Il est classé recommandé ou autorisé dans les provinces Bergame, Belluno, Padoue, Trévise, Pordenone, Trieste et Udine des régions Lombardie, Frioul-Vénétie Julienne et Vénétie. En 1998, il couvrait 7 073 ha. Le glera est également cultivé en Argentine.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glera_(c%C3%A9page)</t>
+          <t>Glera_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc à pointes rosée.
 Jeunes feuilles duveteuses, jaunâtre.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glera_(c%C3%A9page)</t>
+          <t>Glera_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de quatrième époque : 40 - 45 jours après le chasselas.
-Le croisement manzoni 2.15 est un croisement de glera B x cabernet franc N[4].
+Le croisement manzoni 2.15 est un croisement de glera B x cabernet franc N.
 </t>
         </is>
       </c>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glera_(c%C3%A9page)</t>
+          <t>Glera_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grandes et les baies sont de taille moyenne. La grappe est cylindro-conique, peu serrée, avec 1 ou 2 ailerons. Le cépage est de bonne vigueur mais peu fertile. Le glera est sujet à la coulure et au millerandage et il est assez sensible à la sécheresse. Il est généralement conduit en taille longue pour assurer une production abondante.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glera_(c%C3%A9page)</t>
+          <t>Glera_(cépage)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glera est également connu sous les noms de ghera, grappolo spargolo, prosecco balbi, prosecco bianco, prosecco tondo, prosecco, proseko, sciorina et serprina. En Slovénie, on l'appelle prosekar.
 </t>
